--- a/Trans/VOB名詞替換表.xlsx
+++ b/Trans/VOB名詞替換表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPGMaker\VOB_main_v0.01\Trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B46B6C0-0182-4C76-A5BC-FC3D9AD07EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC47F1E-EC1C-4A66-BAC9-0882D4001975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13956" yWindow="0" windowWidth="9180" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11844" yWindow="348" windowWidth="10140" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="223">
   <si>
     <t>厳冬</t>
   </si>
@@ -368,12 +368,500 @@
   <si>
     <t>敵全滅</t>
   </si>
+  <si>
+    <t>行商人</t>
+  </si>
+  <si>
+    <t>旅行商人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅人</t>
+  </si>
+  <si>
+    <t>観光客</t>
+  </si>
+  <si>
+    <t>学者</t>
+  </si>
+  <si>
+    <t>巡礼者</t>
+  </si>
+  <si>
+    <t>流民</t>
+  </si>
+  <si>
+    <t>冒險者</t>
+  </si>
+  <si>
+    <t>觀光客</t>
+  </si>
+  <si>
+    <t>學者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"無"</t>
+  </si>
+  <si>
+    <t>鍛錬</t>
+  </si>
+  <si>
+    <t>余暇</t>
+  </si>
+  <si>
+    <t>農作業</t>
+  </si>
+  <si>
+    <t>冒険者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漁</t>
+  </si>
+  <si>
+    <t>伐採</t>
+  </si>
+  <si>
+    <t>採集</t>
+  </si>
+  <si>
+    <t>行商</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>警備</t>
+  </si>
+  <si>
+    <t>看護</t>
+  </si>
+  <si>
+    <t>写本</t>
+  </si>
+  <si>
+    <t>醸造</t>
+  </si>
+  <si>
+    <t>錬金術</t>
+  </si>
+  <si>
+    <t>機織り</t>
+  </si>
+  <si>
+    <t>詩人</t>
+  </si>
+  <si>
+    <t>神官</t>
+  </si>
+  <si>
+    <t>踊り子</t>
+  </si>
+  <si>
+    <t>シスター</t>
+  </si>
+  <si>
+    <t>バニー</t>
+  </si>
+  <si>
+    <t>巫女</t>
+  </si>
+  <si>
+    <t>學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍛鍊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休養</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休閒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩獵</t>
+  </si>
+  <si>
+    <t>狩獵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内職</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按摩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紡織</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔女郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身體特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨漢</t>
+  </si>
+  <si>
+    <t>怪力</t>
+  </si>
+  <si>
+    <t>マッチョ</t>
+  </si>
+  <si>
+    <t>筋骨隆々</t>
+  </si>
+  <si>
+    <t>筋肉質</t>
+  </si>
+  <si>
+    <t>巨躯</t>
+  </si>
+  <si>
+    <t>美形</t>
+  </si>
+  <si>
+    <t>スマート</t>
+  </si>
+  <si>
+    <t>中性的</t>
+  </si>
+  <si>
+    <t>眉目秀麗</t>
+  </si>
+  <si>
+    <t>優男</t>
+  </si>
+  <si>
+    <t>色男</t>
+  </si>
+  <si>
+    <t>ミステリアス</t>
+  </si>
+  <si>
+    <t>クール</t>
+  </si>
+  <si>
+    <t>癒し系</t>
+  </si>
+  <si>
+    <t>清楚</t>
+  </si>
+  <si>
+    <t>神秘的</t>
+  </si>
+  <si>
+    <t>華奢</t>
+  </si>
+  <si>
+    <t>薄倖</t>
+  </si>
+  <si>
+    <t>興趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大食い</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>筋トレ</t>
+  </si>
+  <si>
+    <t>滝行</t>
+  </si>
+  <si>
+    <t>自由研究</t>
+  </si>
+  <si>
+    <t>釣り</t>
+  </si>
+  <si>
+    <t>自家発電</t>
+  </si>
+  <si>
+    <t>読書</t>
+  </si>
+  <si>
+    <t>祈り</t>
+  </si>
+  <si>
+    <t>ショッピング</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>散歩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噂話</t>
+  </si>
+  <si>
+    <t>詩作</t>
+  </si>
+  <si>
+    <t>瞑想</t>
+  </si>
+  <si>
+    <t>飲酒</t>
+  </si>
+  <si>
+    <t>ギャンブル</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
+    <t>天体観測</t>
+  </si>
+  <si>
+    <t>お茶会</t>
+  </si>
+  <si>
+    <t>手芸</t>
+  </si>
+  <si>
+    <t>喧嘩</t>
+  </si>
+  <si>
+    <t>ドカ食い</t>
+  </si>
+  <si>
+    <t>露出</t>
+  </si>
+  <si>
+    <t>美食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉鍛鍊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂釣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>祈禱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナンパ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊男人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆ナン</t>
+  </si>
+  <si>
+    <t>ダンス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オシャレ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購物</t>
+  </si>
+  <si>
+    <t>散步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦</t>
+  </si>
+  <si>
+    <t>園芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>園藝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作詩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推し活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賭博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶會</t>
+  </si>
+  <si>
+    <t>時尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>大食</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +907,24 @@
       <name val="新細明體"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -440,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,6 +960,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -734,221 +1244,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -958,8 +1618,14 @@
       <c r="C29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -970,7 +1636,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -980,8 +1646,14 @@
       <c r="C31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -991,8 +1663,14 @@
       <c r="C32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -1002,8 +1680,11 @@
       <c r="C33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1014,7 +1695,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1036,7 +1717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1047,7 +1728,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1058,7 +1739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1066,7 +1747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1074,7 +1755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1082,12 +1763,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1095,7 +1776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1103,41 +1784,376 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="89" spans="1:2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B95" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Trans/VOB名詞替換表.xlsx
+++ b/Trans/VOB名詞替換表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPGMaker\VOB_main_v0.01\Trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC47F1E-EC1C-4A66-BAC9-0882D4001975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F86C41-B0F9-45FF-BC65-D9DCE2A4916B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11844" yWindow="348" windowWidth="10140" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="563">
   <si>
     <t>厳冬</t>
   </si>
@@ -845,6 +845,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大食</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -856,12 +859,1059 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>豊穣</t>
+  </si>
+  <si>
+    <t>豐收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖女的光輝</t>
+  </si>
+  <si>
+    <t>聖女の輝き</t>
+  </si>
+  <si>
+    <t>ワーカホリック</t>
+  </si>
+  <si>
+    <t>ワーカホリック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼特</t>
+  </si>
+  <si>
+    <t>箱入り</t>
+  </si>
+  <si>
+    <t>内向的</t>
+  </si>
+  <si>
+    <t>内向的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本の虫</t>
+  </si>
+  <si>
+    <t>汗かき</t>
+  </si>
+  <si>
+    <t>小食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒がり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色白</t>
+  </si>
+  <si>
+    <t>繊細な指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非戦主義</t>
+  </si>
+  <si>
+    <t>通る声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澄んだ声</t>
+  </si>
+  <si>
+    <t>独善的</t>
+  </si>
+  <si>
+    <t>読書家</t>
+  </si>
+  <si>
+    <t>善人</t>
+  </si>
+  <si>
+    <t>強気</t>
+  </si>
+  <si>
+    <t>無鉄砲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孤傲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">喜愛閱讀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">小市民 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">善良 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">強硬 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">莽撞 </t>
+  </si>
+  <si>
+    <t>知性派</t>
+  </si>
+  <si>
+    <t>働き者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通 </t>
+  </si>
+  <si>
+    <t>庶民的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">庶民 </t>
+  </si>
+  <si>
+    <t>内向</t>
+  </si>
+  <si>
+    <t xml:space="preserve">書蟲 </t>
+  </si>
+  <si>
+    <t>勉強苦手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不擅學習 </t>
+  </si>
+  <si>
+    <t>天才肌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天才 </t>
+  </si>
+  <si>
+    <t>学者肌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天生學者 </t>
+  </si>
+  <si>
+    <t>我慢強い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擅長忍耐 </t>
+  </si>
+  <si>
+    <t>正直者</t>
+  </si>
+  <si>
+    <t>老實人</t>
+  </si>
+  <si>
+    <t>天然</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天然 </t>
+  </si>
+  <si>
+    <t>おしゃべり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長舌 </t>
+  </si>
+  <si>
+    <t>怒りっぽい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 易怒</t>
+  </si>
+  <si>
+    <t>残忍</t>
+  </si>
+  <si>
+    <t>殘忍</t>
+  </si>
+  <si>
+    <t>酷薄</t>
+  </si>
+  <si>
+    <t>殘酷</t>
+  </si>
+  <si>
+    <t>昼行燈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">糊塗 </t>
+  </si>
+  <si>
+    <t>戦闘狂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戰鬥狂 </t>
+  </si>
+  <si>
+    <t>根暗</t>
+  </si>
+  <si>
+    <t>陰沉</t>
+  </si>
+  <si>
+    <t>無気力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無力 </t>
+  </si>
+  <si>
+    <t>マジメ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">認真 </t>
+  </si>
+  <si>
+    <t>怠け者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">懶散 </t>
+  </si>
+  <si>
+    <t>ろくでなし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無賴 </t>
+  </si>
+  <si>
+    <t>ワル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">惡棍 </t>
+  </si>
+  <si>
+    <t>インテリヤクザ</t>
+  </si>
+  <si>
+    <t>黑道</t>
+  </si>
+  <si>
+    <t>守銭奴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守財奴 </t>
+  </si>
+  <si>
+    <t>優等生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">優等生 </t>
+  </si>
+  <si>
+    <t>策士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謀略家 </t>
+  </si>
+  <si>
+    <t>神経質</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神經質 </t>
+  </si>
+  <si>
+    <t>女好き</t>
+  </si>
+  <si>
+    <t>喜愛女性</t>
+  </si>
+  <si>
+    <t>チャラい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">輕浮 </t>
+  </si>
+  <si>
+    <t>情熱的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熱情 </t>
+  </si>
+  <si>
+    <t>男嫌い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厭惡男性 </t>
+  </si>
+  <si>
+    <t>夢見がち</t>
+  </si>
+  <si>
+    <t>好奇心旺盛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好奇心旺盛 </t>
+  </si>
+  <si>
+    <t>冒険好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喜愛冒險 </t>
+  </si>
+  <si>
+    <t>陰キャ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陰角 </t>
+  </si>
+  <si>
+    <t>計算高い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吝嗇 </t>
+  </si>
+  <si>
+    <t>姉御肌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古風 </t>
+  </si>
+  <si>
+    <t>大雑把</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隨便 </t>
+  </si>
+  <si>
+    <t>臆病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">膽小 </t>
+  </si>
+  <si>
+    <t>寡黙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寡言 </t>
+  </si>
+  <si>
+    <t>不器用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">笨拙 </t>
+  </si>
+  <si>
+    <t>ぶっきらぼう</t>
+  </si>
+  <si>
+    <t>偏屈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">偏執 </t>
+  </si>
+  <si>
+    <t>利発</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聰明 </t>
+  </si>
+  <si>
+    <t>抜け目がない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精明 </t>
+  </si>
+  <si>
+    <t>職人気質</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工匠精神 </t>
+  </si>
+  <si>
+    <t>狡猾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狡猾 </t>
+  </si>
+  <si>
+    <t>あざとい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耍小聰明 </t>
+  </si>
+  <si>
+    <t>鈍感</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遲鈍 </t>
+  </si>
+  <si>
+    <t>泣き虫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛哭鬼 </t>
+  </si>
+  <si>
+    <t>おしゃれ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時髦 </t>
+  </si>
+  <si>
+    <t>粗暴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">粗暴 </t>
+  </si>
+  <si>
+    <t>男勝り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女強人 </t>
+  </si>
+  <si>
+    <t>潔癖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潔癖 </t>
+  </si>
+  <si>
+    <t>綺麗好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喜歡乾淨 </t>
+  </si>
+  <si>
+    <t>暴れ者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暴力 </t>
+  </si>
+  <si>
+    <t>好戦的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好戰 </t>
+  </si>
+  <si>
+    <t>問題児</t>
+  </si>
+  <si>
+    <t>草食系</t>
+  </si>
+  <si>
+    <t>色鬼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>遊び人</t>
+  </si>
+  <si>
+    <t>むっつり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沉默 </t>
+  </si>
+  <si>
+    <t>勇敢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勇敢 </t>
+  </si>
+  <si>
+    <t>勇猛果敢</t>
+  </si>
+  <si>
+    <t>豪傑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豪傑 </t>
+  </si>
+  <si>
+    <t>惚れっぽい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迷戀 </t>
+  </si>
+  <si>
+    <t>愚直</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愚直 </t>
+  </si>
+  <si>
+    <t>夢想家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">夢想家 </t>
+  </si>
+  <si>
+    <t>堅物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耿直 </t>
+  </si>
+  <si>
+    <t>ストイック</t>
+  </si>
+  <si>
+    <t>仕事好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 喜愛工作 </t>
+  </si>
+  <si>
+    <t>仕事の鬼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 工作狂 </t>
+  </si>
+  <si>
+    <t>頭脳派</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頭腦派 </t>
+  </si>
+  <si>
+    <t>聡明</t>
+  </si>
+  <si>
+    <t>才気煥発</t>
+  </si>
+  <si>
+    <t>マッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 瘋狂 </t>
+  </si>
+  <si>
+    <t>享楽的</t>
+  </si>
+  <si>
+    <t>享樂主義</t>
+  </si>
+  <si>
+    <t>悪女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">惡女 </t>
+  </si>
+  <si>
+    <t>筋肉馬鹿</t>
+  </si>
+  <si>
+    <t>熱血</t>
+  </si>
+  <si>
+    <t>世渡り上手</t>
+  </si>
+  <si>
+    <t>文武両道</t>
+  </si>
+  <si>
+    <t>愚鈍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強欲 </t>
+  </si>
+  <si>
+    <t>現実主義</t>
+  </si>
+  <si>
+    <t>才女</t>
+  </si>
+  <si>
+    <t>才色兼備</t>
+  </si>
+  <si>
+    <t>肉食系</t>
+  </si>
+  <si>
+    <t>理性派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">努力工作 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">白日夢 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大姐姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗魯 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題兒童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草食系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果斷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉穩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才氣煥發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉笨蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文武雙全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現實主義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\t vit &lt;= 10 &amp;&amp;  \t chr &lt;= 16  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\t bodySex === "女" &amp;&amp;  \t dex &gt;= 20 &amp;&amp;  \t chr &gt;= 20  </t>
+  </si>
+  <si>
+    <t>やせ型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \t vit &lt;= 12 &amp;&amp;  \t vit &gt;= 10 &amp;&amp;  \t chr &lt;= 16  </t>
+  </si>
+  <si>
+    <t>スレンダー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &lt;= 15 &amp;&amp;  \t vit &gt;= 11 &amp;&amp;  \t chr &gt;= 17 &amp;&amp;  \t chr &lt;= 23 </t>
+  </si>
+  <si>
+    <t>小太り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t vit &gt;= 18 &amp;&amp;  \t chr &lt;= 12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t str &gt;= 20 &amp;&amp;  \t str &lt;= 23 &amp;&amp;  \t chr &lt;= 20 </t>
+  </si>
+  <si>
+    <t>平凡</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ["vit","str","chr"].every(param =&gt; v[param] &gt;= 15 &amp;&amp; v[param] &lt;= 18)  </t>
+  </si>
+  <si>
+    <t>巨人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t vit &gt;= 28  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &gt;= 24 &amp;&amp;  \t chr &lt;= 17  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t chr &gt;= 24  </t>
+  </si>
+  <si>
+    <t>太りすぎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &gt;= 26 &amp;&amp;  \t chr &lt;= 10  </t>
+  </si>
+  <si>
+    <t>美丈夫</t>
+  </si>
+  <si>
+    <t>美男子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &gt;= 21 &amp;&amp;  \t chr &gt;= 20  </t>
+  </si>
+  <si>
+    <t>たくましい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t str &gt;= 18 &amp;&amp;  \t chr &gt;= 18  </t>
+  </si>
+  <si>
+    <t>長身</t>
+  </si>
+  <si>
+    <t>高個</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &gt;= 18 &amp;&amp;  \t chr &gt;= 18  </t>
+  </si>
+  <si>
+    <t>がっしり</t>
+  </si>
+  <si>
+    <t>堅實</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &gt;= 19  &amp;&amp;  \t vit &lt;= 23 &amp;&amp;  \t chr &lt;= 19 &amp;&amp;  \t chr &gt;= 11  </t>
+  </si>
+  <si>
+    <t>中肉中背</t>
+  </si>
+  <si>
+    <t>不胖不瘦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 18 &amp;&amp;  \t vit &gt;= 15 &amp;&amp;  \t chr &lt;= 19 &amp;&amp;  \t chr &gt;= 11  </t>
+  </si>
+  <si>
+    <t>痩身</t>
+  </si>
+  <si>
+    <t>瘦身</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 14 &amp;&amp;  \t chr &lt;= 17 &amp;&amp;  \t chr &gt;= 13  </t>
+  </si>
+  <si>
+    <t>痩せぎす</t>
+  </si>
+  <si>
+    <t>乾癟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 14 &amp;&amp;  \t chr &lt;= 12  </t>
+  </si>
+  <si>
+    <t>細身</t>
+  </si>
+  <si>
+    <t>精細</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 16 &amp;&amp;  \t chr &gt;= 15 &amp;&amp; \t chr &lt;= 19  </t>
+  </si>
+  <si>
+    <t>俊俏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 16 &amp;&amp;  \t chr &gt;= 19 &amp;&amp;  \t vit &gt;= 11  </t>
+  </si>
+  <si>
+    <t>中性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 15 &amp;&amp; \t chr &gt;= 23  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t int &gt;= 20 &amp;&amp; \t chr &gt;= 20  </t>
+  </si>
+  <si>
+    <t>強面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t str &gt;= 20 &amp;&amp;  \t cou &gt;= 20  </t>
+  </si>
+  <si>
+    <t>小柄</t>
+  </si>
+  <si>
+    <t>嬌小</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t vit &gt;= 9 &amp;&amp;  \t vit &lt;= 11  &amp;&amp;  \t chr &lt;= 16 </t>
+  </si>
+  <si>
+    <t>療癒系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t chr &gt;= 20 &amp;&amp;  \t eth &gt;= 20  </t>
+  </si>
+  <si>
+    <t>ガリガリ</t>
+  </si>
+  <si>
+    <t>骨感</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 10 &amp;&amp;  \t chr &lt;= 10  </t>
+  </si>
+  <si>
+    <t>大柄</t>
+  </si>
+  <si>
+    <t>巨大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t vit &gt;= 20 &amp;&amp;  \t str &gt;= 18 &amp;&amp;  \t vit &lt;= 22  &amp;&amp;  \t chr &lt;= 20 </t>
+  </si>
+  <si>
+    <t>スタイル抜群</t>
+  </si>
+  <si>
+    <t>體態優美</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &gt;= 13 &amp;&amp;  \t chr &gt;= 24  </t>
+  </si>
+  <si>
+    <t>豊満</t>
+  </si>
+  <si>
+    <t>豐滿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &gt;= 16 &amp;&amp;  \t chr &gt;= 22  </t>
+  </si>
+  <si>
+    <t>帥哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t chr &gt;= 20 &amp;&amp;  \t sexdr &gt;= 18 &amp;&amp;  \t vit &lt;= 18  </t>
+  </si>
+  <si>
+    <t>地味</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t vit &lt;= 17 &amp;&amp;  \t chr &lt;= 15  </t>
+  </si>
+  <si>
+    <t>魔性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t chr &gt;= 24 &amp;&amp;  \t sexdr &gt;= 18 &amp;&amp;  \t int &gt;= 16  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &lt;= 11 &amp;&amp;  \t chr &gt;= 20  </t>
+  </si>
+  <si>
+    <t>健康的</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &gt;= 16 &amp;&amp;  \t chr &gt;= 16  &amp;&amp;  \t chr &lt;= 22  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t mag &gt;= 20 &amp;&amp;  \t chr &gt;= 23 &amp;&amp;  \t sexdr &lt;= 17  </t>
+  </si>
+  <si>
+    <t>絶世の美女</t>
+  </si>
+  <si>
+    <t>絕世美女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t chr &gt;= 28  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t mag &gt;= 20 &amp;&amp;  \t chr &gt;= 21 &amp;&amp;  \t chr &lt;= 27 </t>
+  </si>
+  <si>
+    <t>冷酷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t sexdr &lt;= 10 &amp;&amp;  \t chr &gt;= 20 </t>
+  </si>
+  <si>
+    <t>あやしげ</t>
+  </si>
+  <si>
+    <t>可疑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t mag &gt;= 22 &amp;&amp;  \t chr &lt;= 15  </t>
+  </si>
+  <si>
+    <t>男模</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t mag &gt;= 20 &amp;&amp;  \t chr &gt;= 20  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t str &gt;= 27  </t>
+  </si>
+  <si>
+    <t>胡散臭い</t>
+  </si>
+  <si>
+    <t>狡詐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t dex &gt;= 20 &amp;&amp;  \t eth &lt;= 15 &amp;&amp;  \t chr &lt;= 12  </t>
+  </si>
+  <si>
+    <t>悪人顔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t eth &lt;= 12 &amp;&amp;  \t chr &lt;= 15  </t>
+  </si>
+  <si>
+    <t>健壯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t str &gt;= 24 &amp;&amp;  \t chr &lt;= 18  </t>
+  </si>
+  <si>
+    <t>肌肉結實</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t str &gt;= 24 &amp;&amp;  \t chr &gt;= 19  </t>
+  </si>
+  <si>
+    <t>威圧的</t>
+  </si>
+  <si>
+    <t>莊嚴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t eth &lt;= 12 &amp;&amp;  \t cou &gt;= 20 &amp;&amp;  \t str &gt;= 20  </t>
+  </si>
+  <si>
+    <t>精悍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t str &gt;= 20 &amp;&amp;  \t cou &gt;= 18 &amp;&amp;  \t chr &gt;= 18  </t>
+  </si>
+  <si>
+    <t>凛々しい</t>
+  </si>
+  <si>
+    <t>高冷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t str &gt;= 16 &amp;&amp;  \t cou &gt;= 18 &amp;&amp;  \t chr &gt;= 17 &amp;&amp;  \t chr &lt;= 22 </t>
+  </si>
+  <si>
+    <t>素朴</t>
+  </si>
+  <si>
+    <t>質樸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t eth &gt;= 16 &amp;&amp;  \t chr &lt;= 18 &amp;&amp;  \t chr &gt;= 16  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t chr &gt;= 18 &amp;&amp;  \t eth &gt;= 20  </t>
+  </si>
+  <si>
+    <t>しなやか</t>
+  </si>
+  <si>
+    <t>柔軟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &lt;= 17 &amp;&amp;  \t vit &gt;= 14 &amp;&amp;  \t chr &lt;= 20 &amp;&amp;  \t chr &gt;= 16  </t>
+  </si>
+  <si>
+    <t>童顔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t chr &gt;= 18 &amp;&amp;  \t sexdr &lt;= 16 &amp;&amp;  \t vit &lt;= 13 &amp;&amp;  \t chr &lt;= 27  </t>
+  </si>
+  <si>
+    <t>奢華</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &lt;= 12 &amp;&amp;  \t chr &gt;= 17  </t>
+  </si>
+  <si>
+    <t>ふくよか</t>
+  </si>
+  <si>
+    <t>胖女人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &gt;= 18 &amp;&amp;  \t chr &lt;= 15 </t>
+  </si>
+  <si>
+    <t>目立たない</t>
+  </si>
+  <si>
+    <t>不起眼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "女" &amp;&amp;  \t vit &lt;= 17 &amp;&amp;  \t chr &lt;= 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t vit &lt;= 19 &amp;&amp;  \t chr &lt;= 15 </t>
+  </si>
+  <si>
+    <t>小汚い</t>
+  </si>
+  <si>
+    <t>小汚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t int &lt;=3 &amp;&amp;  \t chr &lt;= 11  </t>
+  </si>
+  <si>
+    <t>冴えない</t>
+  </si>
+  <si>
+    <t>無趣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \t bodySex === "男" &amp;&amp;  \t int &lt;= 14 &amp;&amp;  \t chr &lt;= 13</t>
+  </si>
+  <si>
+    <t>虛弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">華やか  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華麗</t>
+  </si>
+  <si>
+    <t>精瘦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纖細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉發達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +1960,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFA31515"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
@@ -946,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,10 +2017,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1244,28 +2305,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="3.25" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="8" customWidth="1"/>
+    <col min="13" max="14" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1276,10 +2354,13 @@
         <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>223</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1292,8 +2373,20 @@
       <c r="E3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K3" t="s">
+        <v>556</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1306,8 +2399,20 @@
       <c r="E4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" t="s">
+        <v>557</v>
+      </c>
+      <c r="K4" t="s">
+        <v>558</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1320,8 +2425,20 @@
       <c r="E5" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" t="s">
+        <v>559</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -1331,8 +2448,20 @@
       <c r="D6" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>432</v>
+      </c>
+      <c r="K6" t="s">
+        <v>560</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>175</v>
@@ -1340,8 +2469,20 @@
       <c r="E7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1351,8 +2492,17 @@
       <c r="D8" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" t="s">
+        <v>562</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1365,8 +2515,17 @@
       <c r="E9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" t="s">
+        <v>437</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1379,8 +2538,17 @@
       <c r="E10" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" t="s">
+        <v>439</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1393,8 +2561,17 @@
       <c r="E11" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1407,8 +2584,17 @@
       <c r="E12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1421,8 +2607,17 @@
       <c r="E13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" t="s">
+        <v>443</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1435,8 +2630,20 @@
       <c r="E14" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" t="s">
+        <v>445</v>
+      </c>
+      <c r="K14" t="s">
+        <v>446</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1446,8 +2653,17 @@
       <c r="E15" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" t="s">
+        <v>448</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1457,8 +2673,20 @@
       <c r="E16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" t="s">
+        <v>450</v>
+      </c>
+      <c r="K16" t="s">
+        <v>451</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1471,8 +2699,20 @@
       <c r="E17" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" t="s">
+        <v>453</v>
+      </c>
+      <c r="K17" t="s">
+        <v>454</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1482,8 +2722,20 @@
       <c r="D18" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" t="s">
+        <v>456</v>
+      </c>
+      <c r="K18" t="s">
+        <v>457</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1493,8 +2745,23 @@
       <c r="D19" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" t="s">
+        <v>426</v>
+      </c>
+      <c r="J19" t="s">
+        <v>459</v>
+      </c>
+      <c r="K19" t="s">
+        <v>460</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1507,8 +2774,17 @@
       <c r="E20" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="J20" t="s">
+        <v>462</v>
+      </c>
+      <c r="K20" t="s">
+        <v>463</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1518,8 +2794,23 @@
       <c r="D21" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" t="s">
+        <v>249</v>
+      </c>
+      <c r="J21" t="s">
+        <v>465</v>
+      </c>
+      <c r="K21" t="s">
+        <v>466</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1532,8 +2823,23 @@
       <c r="E22" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" t="s">
+        <v>250</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>468</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1543,8 +2849,20 @@
       <c r="D23" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" t="s">
+        <v>470</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,8 +2875,23 @@
       <c r="E24" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1571,16 +2904,43 @@
       <c r="E25" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" t="s">
+        <v>473</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E26" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>475</v>
+      </c>
+      <c r="K26" t="s">
+        <v>476</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1593,8 +2953,23 @@
       <c r="E27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>255</v>
+      </c>
+      <c r="H27" t="s">
+        <v>411</v>
+      </c>
+      <c r="J27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
+        <v>478</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1607,8 +2982,23 @@
       <c r="E28" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J28" t="s">
+        <v>480</v>
+      </c>
+      <c r="K28" t="s">
+        <v>481</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1624,8 +3014,20 @@
       <c r="E29" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>483</v>
+      </c>
+      <c r="K29" t="s">
+        <v>484</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1635,8 +3037,23 @@
       <c r="C30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>486</v>
+      </c>
+      <c r="K30" t="s">
+        <v>487</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -1652,8 +3069,23 @@
       <c r="E31" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>489</v>
+      </c>
+      <c r="K31" t="s">
+        <v>490</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1669,8 +3101,23 @@
       <c r="E32" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="G32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" t="s">
+        <v>492</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -1683,8 +3130,40 @@
       <c r="D33" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="G33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" t="s">
+        <v>494</v>
+      </c>
+      <c r="K33" t="s">
+        <v>494</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="G34" t="s">
+        <v>264</v>
+      </c>
+      <c r="H34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>496</v>
+      </c>
+      <c r="K34" t="s">
+        <v>496</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1694,8 +3173,20 @@
       <c r="C35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="G35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1705,8 +3196,23 @@
       <c r="C36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="G36" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>499</v>
+      </c>
+      <c r="K36" t="s">
+        <v>500</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1716,8 +3222,23 @@
       <c r="C37" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="G37" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" t="s">
+        <v>166</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1727,8 +3248,23 @@
       <c r="C38" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="G38" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" t="s">
+        <v>503</v>
+      </c>
+      <c r="K38" t="s">
+        <v>504</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1738,420 +3274,1100 @@
       <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="G39" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" t="s">
+        <v>162</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="G40" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" t="s">
+        <v>507</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="G41" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" t="s">
+        <v>279</v>
+      </c>
+      <c r="J41" t="s">
+        <v>509</v>
+      </c>
+      <c r="K41" t="s">
+        <v>510</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="G42" t="s">
+        <v>280</v>
+      </c>
+      <c r="H42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" t="s">
+        <v>512</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="G43" t="s">
+        <v>282</v>
+      </c>
+      <c r="H43" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="G44" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" t="s">
+        <v>515</v>
+      </c>
+      <c r="K44" t="s">
+        <v>516</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="G45" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" t="s">
+        <v>287</v>
+      </c>
+      <c r="J45" t="s">
+        <v>518</v>
+      </c>
+      <c r="K45" t="s">
+        <v>518</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="G46" t="s">
+        <v>288</v>
+      </c>
+      <c r="H46" t="s">
+        <v>289</v>
+      </c>
+      <c r="J46" t="s">
+        <v>152</v>
+      </c>
+      <c r="K46" t="s">
+        <v>520</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="G47" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" t="s">
+        <v>291</v>
+      </c>
+      <c r="J47" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" t="s">
+        <v>522</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="G48" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" t="s">
+        <v>293</v>
+      </c>
+      <c r="J48" t="s">
+        <v>524</v>
+      </c>
+      <c r="K48" t="s">
+        <v>525</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="G49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H49" t="s">
+        <v>295</v>
+      </c>
+      <c r="J49" t="s">
+        <v>527</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="G50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" t="s">
+        <v>297</v>
+      </c>
+      <c r="J50" t="s">
+        <v>529</v>
+      </c>
+      <c r="K50" t="s">
+        <v>530</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="G51" t="s">
+        <v>298</v>
+      </c>
+      <c r="H51" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" t="s">
+        <v>532</v>
+      </c>
+      <c r="K51" t="s">
+        <v>533</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="G52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H52" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" t="s">
+        <v>165</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="G53" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" t="s">
+        <v>303</v>
+      </c>
+      <c r="J53" t="s">
+        <v>536</v>
+      </c>
+      <c r="K53" t="s">
+        <v>537</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="G54" t="s">
+        <v>304</v>
+      </c>
+      <c r="H54" t="s">
+        <v>305</v>
+      </c>
+      <c r="J54" t="s">
+        <v>539</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="G55" t="s">
+        <v>306</v>
+      </c>
+      <c r="H55" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55" t="s">
+        <v>167</v>
+      </c>
+      <c r="K55" t="s">
+        <v>541</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="G56" t="s">
+        <v>308</v>
+      </c>
+      <c r="H56" t="s">
+        <v>309</v>
+      </c>
+      <c r="J56" t="s">
+        <v>543</v>
+      </c>
+      <c r="K56" t="s">
+        <v>544</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="G57" t="s">
+        <v>310</v>
+      </c>
+      <c r="H57" t="s">
+        <v>311</v>
+      </c>
+      <c r="J57" t="s">
+        <v>546</v>
+      </c>
+      <c r="K57" t="s">
+        <v>547</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="B58" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="G58" t="s">
+        <v>312</v>
+      </c>
+      <c r="H58" t="s">
+        <v>313</v>
+      </c>
+      <c r="J58" t="s">
+        <v>546</v>
+      </c>
+      <c r="K58" t="s">
+        <v>547</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B59" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="G59" t="s">
+        <v>314</v>
+      </c>
+      <c r="H59" t="s">
+        <v>315</v>
+      </c>
+      <c r="J59" t="s">
+        <v>550</v>
+      </c>
+      <c r="K59" t="s">
+        <v>551</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B60" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="G60" t="s">
+        <v>316</v>
+      </c>
+      <c r="H60" t="s">
+        <v>413</v>
+      </c>
+      <c r="J60" t="s">
+        <v>553</v>
+      </c>
+      <c r="K60" t="s">
+        <v>554</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B61" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="G61" t="s">
+        <v>317</v>
+      </c>
+      <c r="H61" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B62" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="G62" t="s">
+        <v>319</v>
+      </c>
+      <c r="H62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="G63" t="s">
+        <v>321</v>
+      </c>
+      <c r="H63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B64" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="G64" t="s">
+        <v>323</v>
+      </c>
+      <c r="H64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B65" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="G65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B66" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="G66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="G67" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B68" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="G68" t="s">
+        <v>329</v>
+      </c>
+      <c r="H68" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="G69" t="s">
+        <v>331</v>
+      </c>
+      <c r="H69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="G70" t="s">
+        <v>333</v>
+      </c>
+      <c r="H70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="G71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="G72" t="s">
+        <v>336</v>
+      </c>
+      <c r="H72" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="G73" t="s">
+        <v>338</v>
+      </c>
+      <c r="H73" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B74" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="G74" t="s">
+        <v>340</v>
+      </c>
+      <c r="H74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B75" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="G75" t="s">
+        <v>342</v>
+      </c>
+      <c r="H75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="G76" t="s">
+        <v>344</v>
+      </c>
+      <c r="H76" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="G77" t="s">
+        <v>346</v>
+      </c>
+      <c r="H77" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B78" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="G78" t="s">
+        <v>348</v>
+      </c>
+      <c r="H78" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="G79" t="s">
+        <v>350</v>
+      </c>
+      <c r="H79" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="G80" t="s">
+        <v>352</v>
+      </c>
+      <c r="H80" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B81" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="G81" t="s">
+        <v>354</v>
+      </c>
+      <c r="H81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B82" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="G82" t="s">
+        <v>356</v>
+      </c>
+      <c r="H82" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B83" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="G83" t="s">
+        <v>358</v>
+      </c>
+      <c r="H83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="G84" t="s">
+        <v>360</v>
+      </c>
+      <c r="H84" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="G85" t="s">
+        <v>362</v>
+      </c>
+      <c r="H85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="B86" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="G86" t="s">
+        <v>364</v>
+      </c>
+      <c r="H86" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="G87" t="s">
+        <v>366</v>
+      </c>
+      <c r="H87" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="G88" t="s">
+        <v>367</v>
+      </c>
+      <c r="H88" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="G89" t="s">
+        <v>368</v>
+      </c>
+      <c r="H89" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="G90" t="s">
+        <v>370</v>
+      </c>
+      <c r="H90" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="G91" t="s">
+        <v>371</v>
+      </c>
+      <c r="H91" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="G92" t="s">
+        <v>373</v>
+      </c>
+      <c r="H92" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="G93" t="s">
+        <v>375</v>
+      </c>
+      <c r="H93" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="G94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H94" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B95" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="G95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="G96" t="s">
+        <v>378</v>
+      </c>
+      <c r="H96" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="G97" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="G98" t="s">
+        <v>382</v>
+      </c>
+      <c r="H98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="G99" t="s">
+        <v>384</v>
+      </c>
+      <c r="H99" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="G100" t="s">
+        <v>386</v>
+      </c>
+      <c r="H100" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="G101" t="s">
+        <v>387</v>
+      </c>
+      <c r="H101" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="G102" t="s">
+        <v>389</v>
+      </c>
+      <c r="H102" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="G103" t="s">
+        <v>391</v>
+      </c>
+      <c r="H103" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="G104" t="s">
+        <v>393</v>
+      </c>
+      <c r="H104" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="G105" t="s">
+        <v>394</v>
+      </c>
+      <c r="H105" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="G106" t="s">
+        <v>395</v>
+      </c>
+      <c r="H106" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="G107" t="s">
+        <v>397</v>
+      </c>
+      <c r="H107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="G108" t="s">
+        <v>399</v>
+      </c>
+      <c r="H108" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="G109" t="s">
+        <v>401</v>
+      </c>
+      <c r="H109" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="G110" t="s">
+        <v>402</v>
+      </c>
+      <c r="H110" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="G111" t="s">
+        <v>403</v>
+      </c>
+      <c r="H111" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="G112" t="s">
+        <v>404</v>
+      </c>
+      <c r="H112" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="G113" t="s">
+        <v>405</v>
+      </c>
+      <c r="H113" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="G114" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="G115" t="s">
+        <v>407</v>
+      </c>
+      <c r="H115" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="G116" t="s">
+        <v>408</v>
+      </c>
+      <c r="H116" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="G117" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="G118" t="s">
+        <v>410</v>
+      </c>
+      <c r="H118" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>168</v>
       </c>
